--- a/BTXL.xlsx
+++ b/BTXL.xlsx
@@ -2855,7 +2855,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3539,9 +3539,7 @@
   <pageMargins left="0" right="1.488095238095238E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;"-,Bold"&amp;20 Bài tập 1_ Chương 5
-&amp;R&amp;"-,Bold"&amp;20Ngày hiện hành
-</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;20Bài tập 1_ Chương 5&amp;R&amp;"-,Bold"&amp;20 03/11/2021</oddHeader>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/BTXL.xlsx
+++ b/BTXL.xlsx
@@ -1484,13 +1484,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="15"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2072,7 +2073,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2290,9 +2291,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2304,7 +2302,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,6 +2374,10 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2854,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2875,14 +2877,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2899,33 +2901,33 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="133" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="K3" s="135" t="s">
+      <c r="I3" s="135"/>
+      <c r="K3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="136"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="3" t="s">
@@ -3238,12 +3240,12 @@
         <v>Khá</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="137" t="s">
+      <c r="H12" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="139"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
     </row>
     <row r="13" spans="1:13" ht="18.75">
       <c r="A13" s="12" t="s">
@@ -3301,7 +3303,7 @@
       <c r="E14" s="4">
         <v>9.86</v>
       </c>
-      <c r="F14" s="131" t="str">
+      <c r="F14" s="130" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3338,7 +3340,7 @@
       <c r="E15" s="13">
         <v>9.66</v>
       </c>
-      <c r="F15" s="131" t="str">
+      <c r="F15" s="130" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3363,7 +3365,7 @@
       <c r="E16" s="4">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F16" s="131" t="str">
+      <c r="F16" s="130" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3551,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3560,7 +3562,7 @@
     <col min="1" max="1" width="13" style="71" customWidth="1"/>
     <col min="2" max="3" width="14.5703125" style="71" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="71" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="71" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="71" customWidth="1"/>
     <col min="8" max="8" width="11" style="71" customWidth="1"/>
@@ -3581,15 +3583,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="31" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
       <c r="I1" s="31" t="s">
         <v>61</v>
       </c>
@@ -3897,16 +3899,16 @@
         <f t="shared" si="4"/>
         <v>94688580</v>
       </c>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="143"/>
-      <c r="K8" s="144"/>
-      <c r="M8" s="145" t="s">
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
+      <c r="M8" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="146"/>
-      <c r="O8" s="147"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="146"/>
     </row>
     <row r="9" spans="1:15" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="39" t="s">
@@ -4567,7 +4569,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4583,18 +4585,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="39">
       <c r="A2" s="73" t="s">
@@ -4643,13 +4645,13 @@
         <f ca="1">YEAR(NOW())-YEAR(C3)</f>
         <v>32</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="155">
         <v>4</v>
       </c>
       <c r="F3" s="74">
         <v>5</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="155">
         <v>3</v>
       </c>
       <c r="H3" s="74">
@@ -4660,7 +4662,7 @@
         <f>((E3*2)+(F3*2)+G3)/5</f>
         <v>4.2</v>
       </c>
-      <c r="J3" s="123" t="str">
+      <c r="J3" s="156" t="str">
         <f>IF(I3&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
@@ -4683,7 +4685,7 @@
       <c r="E4" s="74">
         <v>5</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="155">
         <v>2</v>
       </c>
       <c r="G4" s="74">
@@ -4697,7 +4699,7 @@
         <f t="shared" ref="I4:I17" si="2">((E4*2)+(F4*2)+G4)/5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="123" t="str">
+      <c r="J4" s="156" t="str">
         <f t="shared" ref="J4:J17" si="3">IF(I4&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
@@ -4754,7 +4756,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="155">
         <v>2</v>
       </c>
       <c r="F6" s="74">
@@ -4771,7 +4773,7 @@
         <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="J6" s="123" t="str">
+      <c r="J6" s="156" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -4902,7 +4904,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="155">
         <v>4</v>
       </c>
       <c r="F10" s="74">
@@ -4919,7 +4921,7 @@
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="J10" s="123" t="str">
+      <c r="J10" s="156" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -4979,7 +4981,7 @@
       <c r="E12" s="74">
         <v>8</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="155">
         <v>4</v>
       </c>
       <c r="G12" s="74">
@@ -5013,10 +5015,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="155">
         <v>4</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="155">
         <v>4</v>
       </c>
       <c r="G13" s="74">
@@ -5030,7 +5032,7 @@
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J13" s="123" t="str">
+      <c r="J13" s="156" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -5124,7 +5126,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="155">
         <v>3</v>
       </c>
       <c r="F16" s="74">
@@ -5184,21 +5186,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="149"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="76"/>
       <c r="D18" s="119"/>
-      <c r="E18" s="124">
+      <c r="E18" s="123">
         <f>SUM(E3:E17)</f>
         <v>86</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="123">
         <f t="shared" ref="F18:G18" si="4">SUM(F3:F17)</f>
         <v>83</v>
       </c>
-      <c r="G18" s="124">
+      <c r="G18" s="123">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
@@ -5207,21 +5209,21 @@
       <c r="J18" s="74"/>
     </row>
     <row r="19" spans="1:10" ht="19.5">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="149"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="76"/>
       <c r="D19" s="120"/>
-      <c r="E19" s="125">
+      <c r="E19" s="124">
         <f>AVERAGE(E3:E17)</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="124">
         <f t="shared" ref="F19:G19" si="5">AVERAGE(F3:F17)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="124">
         <f t="shared" si="5"/>
         <v>6.333333333333333</v>
       </c>
@@ -5230,21 +5232,21 @@
       <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="19.5">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="149"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="76"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="126">
+      <c r="E20" s="125">
         <f>MAX(E3:E17)</f>
         <v>9</v>
       </c>
-      <c r="F20" s="126">
+      <c r="F20" s="125">
         <f t="shared" ref="F20:G20" si="6">MAX(F3:F17)</f>
         <v>9</v>
       </c>
-      <c r="G20" s="126">
+      <c r="G20" s="125">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -5253,21 +5255,21 @@
       <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="149"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="76"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="127">
+      <c r="E21" s="126">
         <f>MIN(E3:E17)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="127">
+      <c r="F21" s="126">
         <f t="shared" ref="F21:G21" si="7">MIN(F3:F17)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="127">
+      <c r="G21" s="126">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -5343,7 +5345,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5360,17 +5362,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A2" s="80" t="s">
@@ -5402,7 +5404,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1">
-      <c r="A3" s="130">
+      <c r="A3" s="129">
         <v>1</v>
       </c>
       <c r="B3" s="81" t="s">
@@ -5417,11 +5419,11 @@
       <c r="E3" s="81">
         <v>9</v>
       </c>
-      <c r="F3" s="128">
+      <c r="F3" s="127">
         <f>AVERAGE(C3:E3)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="G3" s="129" t="str">
+      <c r="G3" s="128" t="str">
         <f>IF(F3&gt;=16,"Excellent",IF(AND(F3&lt;16,F3&gt;=14),"Very Good",IF(AND(F3&lt;14,F3&gt;=12),"Good",IF(AND(F3&lt;12,F3&gt;=10),"Pass","Fail"))))</f>
         <v>Pass</v>
       </c>
@@ -5435,7 +5437,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="130">
+      <c r="A4" s="129">
         <v>2</v>
       </c>
       <c r="B4" s="81" t="s">
@@ -5450,11 +5452,11 @@
       <c r="E4" s="81">
         <v>16</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="127">
         <f t="shared" ref="F4:F13" si="0">AVERAGE(C4:E4)</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="G4" s="129" t="str">
+      <c r="G4" s="128" t="str">
         <f t="shared" ref="G4:G13" si="1">IF(F4&gt;=16,"Excellent",IF(AND(F4&lt;16,F4&gt;=14),"Very Good",IF(AND(F4&lt;14,F4&gt;=12),"Good",IF(AND(F4&lt;12,F4&gt;=10),"Pass","Fail"))))</f>
         <v>Pass</v>
       </c>
@@ -5468,7 +5470,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75">
-      <c r="A5" s="130">
+      <c r="A5" s="129">
         <v>3</v>
       </c>
       <c r="B5" s="81" t="s">
@@ -5483,11 +5485,11 @@
       <c r="E5" s="81">
         <v>8</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="127">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G5" s="129" t="str">
+      <c r="G5" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
@@ -5501,7 +5503,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75">
-      <c r="A6" s="130">
+      <c r="A6" s="129">
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
@@ -5516,11 +5518,11 @@
       <c r="E6" s="81">
         <v>3</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="127">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G6" s="129" t="str">
+      <c r="G6" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
@@ -5534,7 +5536,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
-      <c r="A7" s="130">
+      <c r="A7" s="129">
         <v>5</v>
       </c>
       <c r="B7" s="81" t="s">
@@ -5549,11 +5551,11 @@
       <c r="E7" s="81">
         <v>10</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="127">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G7" s="129" t="str">
+      <c r="G7" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Very Good</v>
       </c>
@@ -5567,7 +5569,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75">
-      <c r="A8" s="130">
+      <c r="A8" s="129">
         <v>6</v>
       </c>
       <c r="B8" s="81" t="s">
@@ -5582,11 +5584,11 @@
       <c r="E8" s="81">
         <v>13</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="127">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G8" s="129" t="str">
+      <c r="G8" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
@@ -5600,7 +5602,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75">
-      <c r="A9" s="130">
+      <c r="A9" s="129">
         <v>7</v>
       </c>
       <c r="B9" s="81" t="s">
@@ -5615,11 +5617,11 @@
       <c r="E9" s="81">
         <v>15</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="127">
         <f t="shared" si="0"/>
         <v>17.333333333333332</v>
       </c>
-      <c r="G9" s="129" t="str">
+      <c r="G9" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Excellent</v>
       </c>
@@ -5633,7 +5635,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="130">
+      <c r="A10" s="129">
         <v>8</v>
       </c>
       <c r="B10" s="81" t="s">
@@ -5648,11 +5650,11 @@
       <c r="E10" s="81">
         <v>6</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="127">
         <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="G10" s="129" t="str">
+      <c r="G10" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
@@ -5666,7 +5668,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75">
-      <c r="A11" s="130">
+      <c r="A11" s="129">
         <v>9</v>
       </c>
       <c r="B11" s="81" t="s">
@@ -5681,11 +5683,11 @@
       <c r="E11" s="81">
         <v>16</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="127">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G11" s="129" t="str">
+      <c r="G11" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
@@ -5699,7 +5701,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
-      <c r="A12" s="130">
+      <c r="A12" s="129">
         <v>10</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -5714,11 +5716,11 @@
       <c r="E12" s="81">
         <v>18</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="127">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G12" s="129" t="str">
+      <c r="G12" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
@@ -5732,7 +5734,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75">
-      <c r="A13" s="130">
+      <c r="A13" s="129">
         <v>11</v>
       </c>
       <c r="B13" s="81" t="s">
@@ -5747,11 +5749,11 @@
       <c r="E13" s="81">
         <v>5</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="127">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="G13" s="129" t="str">
+      <c r="G13" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
@@ -5863,18 +5865,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="150" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="89" t="s">
@@ -6222,13 +6224,13 @@
       <c r="D16" s="101">
         <v>0.4</v>
       </c>
-      <c r="E16" s="152" t="s">
+      <c r="E16" s="151" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="155"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="92" t="s">
@@ -6237,7 +6239,7 @@
       <c r="B17" s="94"/>
       <c r="C17" s="94"/>
       <c r="D17" s="95"/>
-      <c r="E17" s="153"/>
+      <c r="E17" s="152"/>
       <c r="G17" s="94">
         <v>0</v>
       </c>

--- a/BTXL.xlsx
+++ b/BTXL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="223">
   <si>
     <t xml:space="preserve">BẢNG THỐNG KÊ KẾT QUẢ THI HỌC SINH GIỎI NĂN 200... </t>
   </si>
@@ -1216,6 +1216,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Trần Vinh</t>
+  </si>
+  <si>
+    <t>Lê Thuý</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2079,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2312,73 +2318,86 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2846,7 +2865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2856,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2871,20 +2890,20 @@
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2920,14 +2939,14 @@
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="134" t="s">
+      <c r="H3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="K3" s="134" t="s">
+      <c r="I3" s="137"/>
+      <c r="K3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="135"/>
+      <c r="L3" s="137"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="3" t="s">
@@ -3240,12 +3259,12 @@
         <v>Khá</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="136" t="s">
+      <c r="H12" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
     </row>
     <row r="13" spans="1:13" ht="18.75">
       <c r="A13" s="12" t="s">
@@ -3371,7 +3390,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75">
+    <row r="17" spans="1:13" ht="18.75">
       <c r="A17" s="12" t="s">
         <v>50</v>
       </c>
@@ -3396,7 +3415,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75">
+    <row r="18" spans="1:13" ht="18.75">
       <c r="A18" s="25" t="s">
         <v>51</v>
       </c>
@@ -3421,7 +3440,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75">
+    <row r="19" spans="1:13" ht="18.75">
       <c r="A19" s="29" t="s">
         <v>52</v>
       </c>
@@ -3432,7 +3451,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="26.25" customHeight="1">
+    <row r="20" spans="1:13" ht="26.25" customHeight="1">
       <c r="A20" s="110" t="s">
         <v>53</v>
       </c>
@@ -3445,7 +3464,7 @@
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
     </row>
-    <row r="21" spans="1:12" ht="25.5" customHeight="1">
+    <row r="21" spans="1:13" ht="25.5" customHeight="1">
       <c r="A21" s="110" t="s">
         <v>54</v>
       </c>
@@ -3456,7 +3475,7 @@
       <c r="F21" s="107"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="20.25">
+    <row r="22" spans="1:13" ht="20.25">
       <c r="A22" s="110" t="s">
         <v>55</v>
       </c>
@@ -3467,7 +3486,7 @@
       <c r="F22" s="109"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="20.25">
+    <row r="23" spans="1:13" ht="37.5">
       <c r="A23" s="110" t="s">
         <v>56</v>
       </c>
@@ -3477,8 +3496,26 @@
       <c r="E23" s="110"/>
       <c r="F23" s="109"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" customHeight="1">
+      <c r="H23" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="158" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1">
       <c r="A24" s="110" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3525,26 @@
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="H24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" customHeight="1">
       <c r="A25" s="110" t="s">
         <v>58</v>
       </c>
@@ -3499,8 +3554,26 @@
       <c r="E25" s="107"/>
       <c r="F25" s="107"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.25">
+      <c r="H25" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="161" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="161">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20.25">
       <c r="A26" s="110" t="s">
         <v>59</v>
       </c>
@@ -3511,7 +3584,7 @@
       <c r="F26" s="110"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="20.25">
+    <row r="27" spans="1:13" ht="20.25">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -3521,7 +3594,7 @@
       <c r="G27" s="1"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="20.25">
+    <row r="28" spans="1:13" ht="20.25">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -3583,15 +3656,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="31" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
       <c r="I1" s="31" t="s">
         <v>61</v>
       </c>
@@ -3899,16 +3972,16 @@
         <f t="shared" si="4"/>
         <v>94688580</v>
       </c>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
-      <c r="M8" s="144" t="s">
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
+      <c r="M8" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="146"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="148"/>
     </row>
     <row r="9" spans="1:15" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="39" t="s">
@@ -4585,18 +4658,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:10" ht="39">
       <c r="A2" s="73" t="s">
@@ -4645,13 +4718,13 @@
         <f ca="1">YEAR(NOW())-YEAR(C3)</f>
         <v>32</v>
       </c>
-      <c r="E3" s="155">
+      <c r="E3" s="134">
         <v>4</v>
       </c>
       <c r="F3" s="74">
         <v>5</v>
       </c>
-      <c r="G3" s="155">
+      <c r="G3" s="134">
         <v>3</v>
       </c>
       <c r="H3" s="74">
@@ -4662,7 +4735,7 @@
         <f>((E3*2)+(F3*2)+G3)/5</f>
         <v>4.2</v>
       </c>
-      <c r="J3" s="156" t="str">
+      <c r="J3" s="135" t="str">
         <f>IF(I3&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
@@ -4685,7 +4758,7 @@
       <c r="E4" s="74">
         <v>5</v>
       </c>
-      <c r="F4" s="155">
+      <c r="F4" s="134">
         <v>2</v>
       </c>
       <c r="G4" s="74">
@@ -4699,7 +4772,7 @@
         <f t="shared" ref="I4:I17" si="2">((E4*2)+(F4*2)+G4)/5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="156" t="str">
+      <c r="J4" s="135" t="str">
         <f t="shared" ref="J4:J17" si="3">IF(I4&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
@@ -4756,7 +4829,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="E6" s="155">
+      <c r="E6" s="134">
         <v>2</v>
       </c>
       <c r="F6" s="74">
@@ -4773,7 +4846,7 @@
         <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="J6" s="156" t="str">
+      <c r="J6" s="135" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -4904,7 +4977,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E10" s="155">
+      <c r="E10" s="134">
         <v>4</v>
       </c>
       <c r="F10" s="74">
@@ -4921,7 +4994,7 @@
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="J10" s="156" t="str">
+      <c r="J10" s="135" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -4981,7 +5054,7 @@
       <c r="E12" s="74">
         <v>8</v>
       </c>
-      <c r="F12" s="155">
+      <c r="F12" s="134">
         <v>4</v>
       </c>
       <c r="G12" s="74">
@@ -5015,10 +5088,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="134">
         <v>4</v>
       </c>
-      <c r="F13" s="155">
+      <c r="F13" s="134">
         <v>4</v>
       </c>
       <c r="G13" s="74">
@@ -5032,7 +5105,7 @@
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J13" s="156" t="str">
+      <c r="J13" s="135" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -5126,7 +5199,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E16" s="155">
+      <c r="E16" s="134">
         <v>3</v>
       </c>
       <c r="F16" s="74">
@@ -5186,10 +5259,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="148"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="76"/>
       <c r="D18" s="119"/>
       <c r="E18" s="123">
@@ -5209,10 +5282,10 @@
       <c r="J18" s="74"/>
     </row>
     <row r="19" spans="1:10" ht="19.5">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="148"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="76"/>
       <c r="D19" s="120"/>
       <c r="E19" s="124">
@@ -5232,10 +5305,10 @@
       <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="19.5">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="148"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="76"/>
       <c r="D20" s="119"/>
       <c r="E20" s="125">
@@ -5255,10 +5328,10 @@
       <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="148"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="76"/>
       <c r="D21" s="119"/>
       <c r="E21" s="126">
@@ -5362,17 +5435,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A2" s="80" t="s">
@@ -5865,18 +5938,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="89" t="s">
@@ -6224,13 +6297,13 @@
       <c r="D16" s="101">
         <v>0.4</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="153" t="s">
+      <c r="G16" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="154"/>
+      <c r="H16" s="156"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="92" t="s">
@@ -6239,7 +6312,7 @@
       <c r="B17" s="94"/>
       <c r="C17" s="94"/>
       <c r="D17" s="95"/>
-      <c r="E17" s="152"/>
+      <c r="E17" s="154"/>
       <c r="G17" s="94">
         <v>0</v>
       </c>

--- a/BTXL.xlsx
+++ b/BTXL.xlsx
@@ -1490,20 +1490,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
+      <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="15"/>
-      <color theme="0"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1572,18 +1571,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2013,43 +2006,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2079,7 +2035,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2286,9 +2242,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2297,10 +2250,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2308,18 +2257,29 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,19 +2345,11 @@
     <xf numFmtId="0" fontId="36" fillId="8" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2876,7 +2828,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2896,14 +2848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2920,33 +2872,33 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="127" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="137"/>
-      <c r="K3" s="136" t="s">
+      <c r="I3" s="135"/>
+      <c r="K3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="137"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="3" t="s">
@@ -3259,12 +3211,12 @@
         <v>Khá</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="140"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
     </row>
     <row r="13" spans="1:13" ht="18.75">
       <c r="A13" s="12" t="s">
@@ -3319,10 +3271,10 @@
         <f t="shared" si="0"/>
         <v>Toán</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="159">
         <v>9.86</v>
       </c>
-      <c r="F14" s="130" t="str">
+      <c r="F14" s="155" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3356,10 +3308,10 @@
         <f t="shared" si="0"/>
         <v>Sinh ngữ</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="159">
         <v>9.66</v>
       </c>
-      <c r="F15" s="130" t="str">
+      <c r="F15" s="155" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3381,10 +3333,10 @@
         <f t="shared" si="0"/>
         <v>Sinh ngữ</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="159">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F16" s="130" t="str">
+      <c r="F16" s="155" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3496,22 +3448,22 @@
       <c r="E23" s="110"/>
       <c r="F23" s="109"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="157" t="s">
+      <c r="H23" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="157" t="s">
+      <c r="I23" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="158" t="s">
+      <c r="J23" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="158" t="s">
+      <c r="K23" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="158" t="s">
+      <c r="L23" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="159" t="s">
+      <c r="M23" s="130" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3554,10 +3506,10 @@
       <c r="E25" s="107"/>
       <c r="F25" s="107"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="160" t="s">
+      <c r="H25" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="161" t="s">
+      <c r="I25" s="132" t="s">
         <v>222</v>
       </c>
       <c r="J25" s="27" t="s">
@@ -3566,7 +3518,7 @@
       <c r="K25" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="161">
+      <c r="L25" s="132">
         <v>8.1999999999999993</v>
       </c>
       <c r="M25" s="28" t="s">
@@ -3626,7 +3578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3656,15 +3608,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="31" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
       <c r="I1" s="31" t="s">
         <v>61</v>
       </c>
@@ -3972,16 +3924,16 @@
         <f t="shared" si="4"/>
         <v>94688580</v>
       </c>
-      <c r="I8" s="143" t="s">
+      <c r="I8" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="M8" s="146" t="s">
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
+      <c r="M8" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="147"/>
-      <c r="O8" s="148"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="146"/>
     </row>
     <row r="9" spans="1:15" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="39" t="s">
@@ -4642,7 +4594,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4658,18 +4610,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="39">
       <c r="A2" s="73" t="s">
@@ -4718,13 +4670,13 @@
         <f ca="1">YEAR(NOW())-YEAR(C3)</f>
         <v>32</v>
       </c>
-      <c r="E3" s="134">
+      <c r="E3" s="158">
         <v>4</v>
       </c>
       <c r="F3" s="74">
         <v>5</v>
       </c>
-      <c r="G3" s="134">
+      <c r="G3" s="158">
         <v>3</v>
       </c>
       <c r="H3" s="74">
@@ -4735,7 +4687,7 @@
         <f>((E3*2)+(F3*2)+G3)/5</f>
         <v>4.2</v>
       </c>
-      <c r="J3" s="135" t="str">
+      <c r="J3" s="133" t="str">
         <f>IF(I3&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
@@ -4758,7 +4710,7 @@
       <c r="E4" s="74">
         <v>5</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="158">
         <v>2</v>
       </c>
       <c r="G4" s="74">
@@ -4772,7 +4724,7 @@
         <f t="shared" ref="I4:I17" si="2">((E4*2)+(F4*2)+G4)/5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="135" t="str">
+      <c r="J4" s="133" t="str">
         <f t="shared" ref="J4:J17" si="3">IF(I4&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
@@ -4809,7 +4761,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J5" s="118" t="str">
+      <c r="J5" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -4829,7 +4781,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="158">
         <v>2</v>
       </c>
       <c r="F6" s="74">
@@ -4846,7 +4798,7 @@
         <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="J6" s="135" t="str">
+      <c r="J6" s="133" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -4883,7 +4835,7 @@
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="J7" s="118" t="str">
+      <c r="J7" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -4920,7 +4872,7 @@
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="J8" s="118" t="str">
+      <c r="J8" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -4957,7 +4909,7 @@
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="J9" s="118" t="str">
+      <c r="J9" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -4977,7 +4929,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="158">
         <v>4</v>
       </c>
       <c r="F10" s="74">
@@ -4994,7 +4946,7 @@
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="J10" s="135" t="str">
+      <c r="J10" s="133" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -5031,7 +4983,7 @@
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="J11" s="118" t="str">
+      <c r="J11" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -5054,7 +5006,7 @@
       <c r="E12" s="74">
         <v>8</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="158">
         <v>4</v>
       </c>
       <c r="G12" s="74">
@@ -5068,7 +5020,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J12" s="118" t="str">
+      <c r="J12" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -5088,10 +5040,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="158">
         <v>4</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="158">
         <v>4</v>
       </c>
       <c r="G13" s="74">
@@ -5105,7 +5057,7 @@
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J13" s="135" t="str">
+      <c r="J13" s="133" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
@@ -5142,7 +5094,7 @@
         <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
-      <c r="J14" s="118" t="str">
+      <c r="J14" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -5179,7 +5131,7 @@
         <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
-      <c r="J15" s="118" t="str">
+      <c r="J15" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
@@ -5199,7 +5151,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E16" s="134">
+      <c r="E16" s="158">
         <v>3</v>
       </c>
       <c r="F16" s="74">
@@ -5216,12 +5168,12 @@
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="J16" s="118" t="str">
+      <c r="J16" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.25" thickBot="1">
+    <row r="17" spans="1:10" ht="19.5">
       <c r="A17" s="74">
         <v>15</v>
       </c>
@@ -5236,13 +5188,13 @@
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="121">
         <v>5</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="121">
         <v>8</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="121">
         <v>9</v>
       </c>
       <c r="H17" s="74">
@@ -5253,100 +5205,100 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J17" s="118" t="str">
+      <c r="J17" s="133" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="150"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="123">
+      <c r="D18" s="118"/>
+      <c r="E18" s="156">
         <f>SUM(E3:E17)</f>
         <v>86</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="156">
         <f t="shared" ref="F18:G18" si="4">SUM(F3:F17)</f>
         <v>83</v>
       </c>
-      <c r="G18" s="123">
+      <c r="G18" s="156">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="H18" s="121"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
     </row>
     <row r="19" spans="1:10" ht="19.5">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="124">
+      <c r="D19" s="119"/>
+      <c r="E19" s="157">
         <f>AVERAGE(E3:E17)</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="157">
         <f t="shared" ref="F19:G19" si="5">AVERAGE(F3:F17)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="157">
         <f t="shared" si="5"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="H19" s="121"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="19.5">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="150"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="125">
+      <c r="D20" s="118"/>
+      <c r="E20" s="156">
         <f>MAX(E3:E17)</f>
         <v>9</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="156">
         <f t="shared" ref="F20:G20" si="6">MAX(F3:F17)</f>
         <v>9</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="156">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H20" s="121"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A21" s="150" t="s">
+    <row r="21" spans="1:10" ht="19.5">
+      <c r="A21" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="150"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="126">
+      <c r="D21" s="118"/>
+      <c r="E21" s="156">
         <f>MIN(E3:E17)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="126">
+      <c r="F21" s="156">
         <f t="shared" ref="F21:G21" si="7">MIN(F3:F17)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="126">
+      <c r="G21" s="156">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="H21" s="121"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
     </row>
@@ -5435,17 +5387,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A2" s="80" t="s">
@@ -5477,7 +5429,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1">
-      <c r="A3" s="129">
+      <c r="A3" s="124">
         <v>1</v>
       </c>
       <c r="B3" s="81" t="s">
@@ -5492,11 +5444,11 @@
       <c r="E3" s="81">
         <v>9</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="122">
         <f>AVERAGE(C3:E3)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="G3" s="128" t="str">
+      <c r="G3" s="123" t="str">
         <f>IF(F3&gt;=16,"Excellent",IF(AND(F3&lt;16,F3&gt;=14),"Very Good",IF(AND(F3&lt;14,F3&gt;=12),"Good",IF(AND(F3&lt;12,F3&gt;=10),"Pass","Fail"))))</f>
         <v>Pass</v>
       </c>
@@ -5510,7 +5462,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="129">
+      <c r="A4" s="124">
         <v>2</v>
       </c>
       <c r="B4" s="81" t="s">
@@ -5525,11 +5477,11 @@
       <c r="E4" s="81">
         <v>16</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="122">
         <f t="shared" ref="F4:F13" si="0">AVERAGE(C4:E4)</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="G4" s="128" t="str">
+      <c r="G4" s="123" t="str">
         <f t="shared" ref="G4:G13" si="1">IF(F4&gt;=16,"Excellent",IF(AND(F4&lt;16,F4&gt;=14),"Very Good",IF(AND(F4&lt;14,F4&gt;=12),"Good",IF(AND(F4&lt;12,F4&gt;=10),"Pass","Fail"))))</f>
         <v>Pass</v>
       </c>
@@ -5543,7 +5495,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75">
-      <c r="A5" s="129">
+      <c r="A5" s="124">
         <v>3</v>
       </c>
       <c r="B5" s="81" t="s">
@@ -5558,11 +5510,11 @@
       <c r="E5" s="81">
         <v>8</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F5" s="122">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G5" s="128" t="str">
+      <c r="G5" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
@@ -5576,7 +5528,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75">
-      <c r="A6" s="129">
+      <c r="A6" s="124">
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
@@ -5591,11 +5543,11 @@
       <c r="E6" s="81">
         <v>3</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="122">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G6" s="128" t="str">
+      <c r="G6" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
@@ -5609,7 +5561,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
-      <c r="A7" s="129">
+      <c r="A7" s="124">
         <v>5</v>
       </c>
       <c r="B7" s="81" t="s">
@@ -5624,11 +5576,11 @@
       <c r="E7" s="81">
         <v>10</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="122">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G7" s="128" t="str">
+      <c r="G7" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Very Good</v>
       </c>
@@ -5642,7 +5594,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75">
-      <c r="A8" s="129">
+      <c r="A8" s="124">
         <v>6</v>
       </c>
       <c r="B8" s="81" t="s">
@@ -5657,11 +5609,11 @@
       <c r="E8" s="81">
         <v>13</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="122">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G8" s="128" t="str">
+      <c r="G8" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
@@ -5675,7 +5627,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75">
-      <c r="A9" s="129">
+      <c r="A9" s="124">
         <v>7</v>
       </c>
       <c r="B9" s="81" t="s">
@@ -5690,11 +5642,11 @@
       <c r="E9" s="81">
         <v>15</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="122">
         <f t="shared" si="0"/>
         <v>17.333333333333332</v>
       </c>
-      <c r="G9" s="128" t="str">
+      <c r="G9" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Excellent</v>
       </c>
@@ -5708,7 +5660,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="129">
+      <c r="A10" s="124">
         <v>8</v>
       </c>
       <c r="B10" s="81" t="s">
@@ -5723,11 +5675,11 @@
       <c r="E10" s="81">
         <v>6</v>
       </c>
-      <c r="F10" s="127">
+      <c r="F10" s="122">
         <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="G10" s="128" t="str">
+      <c r="G10" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
@@ -5741,7 +5693,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75">
-      <c r="A11" s="129">
+      <c r="A11" s="124">
         <v>9</v>
       </c>
       <c r="B11" s="81" t="s">
@@ -5756,11 +5708,11 @@
       <c r="E11" s="81">
         <v>16</v>
       </c>
-      <c r="F11" s="127">
+      <c r="F11" s="122">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G11" s="128" t="str">
+      <c r="G11" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
@@ -5774,7 +5726,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
-      <c r="A12" s="129">
+      <c r="A12" s="124">
         <v>10</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -5789,11 +5741,11 @@
       <c r="E12" s="81">
         <v>18</v>
       </c>
-      <c r="F12" s="127">
+      <c r="F12" s="122">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G12" s="128" t="str">
+      <c r="G12" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
@@ -5807,7 +5759,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75">
-      <c r="A13" s="129">
+      <c r="A13" s="124">
         <v>11</v>
       </c>
       <c r="B13" s="81" t="s">
@@ -5822,11 +5774,11 @@
       <c r="E13" s="81">
         <v>5</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="122">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="G13" s="128" t="str">
+      <c r="G13" s="123" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
@@ -5938,18 +5890,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="89" t="s">
@@ -6297,13 +6249,13 @@
       <c r="D16" s="101">
         <v>0.4</v>
       </c>
-      <c r="E16" s="153" t="s">
+      <c r="E16" s="151" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="155" t="s">
+      <c r="G16" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="156"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="92" t="s">
@@ -6312,7 +6264,7 @@
       <c r="B17" s="94"/>
       <c r="C17" s="94"/>
       <c r="D17" s="95"/>
-      <c r="E17" s="154"/>
+      <c r="E17" s="152"/>
       <c r="G17" s="94">
         <v>0</v>
       </c>
